--- a/src/test/resources/testdata/TestData-1.xlsx
+++ b/src/test/resources/testdata/TestData-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="6020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="6020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>TC_ID</t>
   </si>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>lifecycle</t>
+  </si>
+  <si>
+    <t>depends_TC</t>
+  </si>
+  <si>
+    <t>outlookLogin</t>
+  </si>
+  <si>
+    <t>http://mail.maveric-systems.com/</t>
+  </si>
+  <si>
+    <t>driverType</t>
+  </si>
+  <si>
+    <t>desktop</t>
+  </si>
+  <si>
+    <t>danielf@maveric-systems.com</t>
+  </si>
+  <si>
+    <t>Mavaug@123</t>
   </si>
 </sst>
 </file>
@@ -523,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,6 +854,9 @@
       <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -949,12 +976,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/testdata/TestData-1.xlsx
+++ b/src/test/resources/testdata/TestData-1.xlsx
@@ -168,9 +168,6 @@
     <t>depends_TC</t>
   </si>
   <si>
-    <t>outlookLogin</t>
-  </si>
-  <si>
     <t>http://mail.maveric-systems.com/</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Mavaug@123</t>
+  </si>
+  <si>
+    <t>outlookLogin;openAirProcess;</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,7 +988,7 @@
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1007,7 +1007,7 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
         <v>43</v>
@@ -1027,19 +1027,19 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1073,6 +1073,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010019C1A9FAA49BF4449ADE76CDC075C7F5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="091f7e2ce8f8494610963fc07295bc2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3e6f329-e8f8-45c7-8f84-82c37f9198db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b6c54240d0fea56d19a439d3caa8cce" ns2:_="">
     <xsd:import namespace="b3e6f329-e8f8-45c7-8f84-82c37f9198db"/>
@@ -1204,22 +1219,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58AADA9-E1CD-46BA-BC2E-336746DDF2FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E20E1F7-854D-4389-BC46-A2C23A80814D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E820B81F-0974-4B9B-A2AE-7D3E0F19DDBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1235,21 +1252,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E20E1F7-854D-4389-BC46-A2C23A80814D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58AADA9-E1CD-46BA-BC2E-336746DDF2FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>